--- a/woniuboss4.0/GUI测试/woniuboss4.0_GUI/testdata/woniuboss4.0_testcase.xlsx
+++ b/woniuboss4.0/GUI测试/woniuboss4.0_GUI/testdata/woniuboss4.0_testcase.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="train" sheetId="2" r:id="rId2"/>
-    <sheet name="query" sheetId="4" r:id="rId3"/>
+    <sheet name="student" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="162">
   <si>
     <t>用例编号</t>
   </si>
@@ -25,6 +25,9 @@
     <t>标题</t>
   </si>
   <si>
+    <t>前置条件</t>
+  </si>
+  <si>
     <t>测试步骤</t>
   </si>
   <si>
@@ -38,6 +41,10 @@
   </si>
   <si>
     <t>所有参数正确</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、进入http://192.168.47.132:8080/WoniuBoss4.0
+</t>
   </si>
   <si>
     <t>userName=wncd007
@@ -76,15 +83,12 @@
     <t>LOGIN-004</t>
   </si>
   <si>
-    <t>验证码错误</t>
+    <t>账号密码错误</t>
   </si>
   <si>
     <t>userName=wncd000
-userPass=woniu123
-checkcode=5555</t>
-  </si>
-  <si>
-    <t>前置条件</t>
+userPass=woniu1235
+checkcode=0000</t>
   </si>
   <si>
     <t>train_001</t>
@@ -314,7 +318,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>包芸</t>
+      <t>安琪</t>
     </r>
     <r>
       <rPr>
@@ -391,7 +395,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>包芸</t>
+      <t>安琪</t>
     </r>
     <r>
       <rPr>
@@ -429,7 +433,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>同事推荐</t>
+      <t>自然流量</t>
     </r>
   </si>
   <si>
@@ -440,6 +444,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>pool=</t>
     </r>
     <r>
@@ -517,6 +527,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>phone=
 name=</t>
     </r>
@@ -633,6 +649,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>phone=15688900000
 name=
 sex=</t>
@@ -731,6 +753,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>phone=15688900000
 name=</t>
     </r>
@@ -847,6 +875,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>phone=15688900000
 name=</t>
     </r>
@@ -963,6 +997,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>phone=1350a8084567
 name=</t>
     </r>
@@ -1079,6 +1119,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>phone=151818084567
 name=</t>
     </r>
@@ -1194,7 +1240,2141 @@
     <t>验证新增客户—新增的资源重复</t>
   </si>
   <si>
+    <r>
+      <t>phone=151818084567
+name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>许少华</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+sex=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>男</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新入库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+grade=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大专</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+experience=1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+source=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前程无忧</t>
+    </r>
+  </si>
+  <si>
     <t>train_023</t>
+  </si>
+  <si>
+    <t>跟踪客户资源-状态为已上门</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.点击培训资源，选择资源库
+2.资源池选择临时池，输入框输入索拉卡
+3.点击跟踪
+4.选择本次状态为可跟进
+5.优先级选择高
+6.跟踪内容输入：目前考虑换行。
+7.点击保存
+8.勾选个人池
+9.关键字搜索输入陈盼盼并点击搜索并点击搜索
+</t>
+  </si>
+  <si>
+    <r>
+      <t>keywards=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>索拉卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已上门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+priority=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+next_tracking=2020-04-28
+tracking_content=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已上门洽谈</t>
+    </r>
+  </si>
+  <si>
+    <t>train_024</t>
+  </si>
+  <si>
+    <t>跟踪客户资源-状态为已预约</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.点击培训资源，选择资源库
+2.资源池选择临时池，输入框输入田米
+3.点击跟踪
+4.选择本次状态为可跟进
+5.优先级选择高
+6.跟踪内容输入：目前考虑换行。
+7.点击保存
+8.勾选个人池
+9.关键字搜索输入陈盼盼并点击搜索并点击搜索
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>keywards=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>李小楠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已预约</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+priority=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+next_tracking=2020-04-29
+tracking_content=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已上门洽谈</t>
+    </r>
+  </si>
+  <si>
+    <t>train_025</t>
+  </si>
+  <si>
+    <t>跟踪客户资源-优先级为高</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>keywards=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>雷军</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可跟进</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+priority=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+next_tracking=2020-04-28
+tracking_content=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已上门洽谈</t>
+    </r>
+  </si>
+  <si>
+    <t>train_026</t>
+  </si>
+  <si>
+    <t>跟踪客户资源-状态为空</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.点击培训资源，选择资源库
+2.资源池选择临时池，输入框输入田米
+3.点击跟踪
+4.选择本次状态为全部
+5.优先级选择中
+6.跟踪内容输入：目前考虑换行。
+7.点击保存
+8.勾选个人池
+9.关键字搜索输入陈盼盼并点击搜索并点击搜索
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>keywards=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>雷军</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+priority=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+next_tracking=2020-04-29
+tracking_content=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已上门洽谈</t>
+    </r>
+  </si>
+  <si>
+    <t>train_027</t>
+  </si>
+  <si>
+    <t>跟踪客户资源-优先级为空</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.点击培训资源，选择资源库
+2.资源池选择临时池，输入框输入雷军
+3.点击跟踪
+4.选择本次状态为可跟进
+5.优先级选择全部
+6.跟踪内容输入：目前考虑换行。
+7.点击保存
+8.勾选个人池
+9.关键字搜索输入陈盼盼并点击搜索并点击搜索
+</t>
+  </si>
+  <si>
+    <r>
+      <t>keywards=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>雷军</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可跟进</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+priority=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+next_tracking=2020-04-29
+tracking_content=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已上门洽谈</t>
+    </r>
+  </si>
+  <si>
+    <t>train_028</t>
+  </si>
+  <si>
+    <t>跟踪客户资源-下次跟踪时间为空</t>
+  </si>
+  <si>
+    <r>
+      <t>keywards=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>雷军</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可跟进</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+priority=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+next_tracking=
+tracking_content=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已上门洽谈</t>
+    </r>
+  </si>
+  <si>
+    <t>train_029</t>
+  </si>
+  <si>
+    <t>跟踪客户资源-跟踪内容为空</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>keywards=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>雷军</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可跟进</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+priority=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+next_tracking=2020-04-30
+tracking_content=</t>
+    </r>
+  </si>
+  <si>
+    <t>train_030</t>
+  </si>
+  <si>
+    <t>跟踪客户资源-状态为无意向</t>
+  </si>
+  <si>
+    <r>
+      <t>keywards=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>路四</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无意向</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+priority=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+next_tracking=2020-05-01
+tracking_content=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已上门洽谈</t>
+    </r>
+  </si>
+  <si>
+    <t>train_031</t>
+  </si>
+  <si>
+    <t>跟踪客户资源-状态为培训过</t>
+  </si>
+  <si>
+    <r>
+      <t>keywards=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金奥力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>培训过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+priority=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+next_tracking=2020-05-01
+tracking_content=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已上门洽谈</t>
+    </r>
+  </si>
+  <si>
+    <t>train_032</t>
+  </si>
+  <si>
+    <t>跟踪客户资源-条件不符</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.点击培训资源，选择资源库
+2.资源池选择临时池，输入框输入许升
+3.点击跟踪
+4.选择本次状态为可跟进
+5.优先级选择全部
+6.跟踪内容输入：目前考虑换行。
+7.点击保存
+8.勾选个人池
+9.关键字搜索输入陈盼盼并点击搜索并点击搜索
+</t>
+  </si>
+  <si>
+    <r>
+      <t>keywards=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>易四</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>条件不符</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+priority=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+next_tracking=2020-05-01
+tracking_content=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已上门洽谈</t>
+    </r>
+  </si>
+  <si>
+    <t>train_033</t>
+  </si>
+  <si>
+    <t>跟踪客户资源-已报名_正确</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>keywards=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陈娜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已报名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+priority=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+next_tracking=2020-04-28
+tracking_content=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已上门洽谈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+cus_class_no=WNSH01
+cus_payable=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>18800</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+cus_deposit=500
+cus_payment=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支付宝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+cus_account=WNSH001
+time_data=2020-04-29
+pool=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学生池</t>
+    </r>
+  </si>
+  <si>
+    <t>train_034</t>
+  </si>
+  <si>
+    <t>跟踪客户资源-已报名_入读班级不选</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>keywards=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>路三</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已报名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+priority=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+next_tracking=2020-04-28
+tracking_content=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已上门洽谈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+cus_class_no=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+cus_payable=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>18800</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+cus_deposit=500
+cus_payment=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支付宝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+cus_account=WNSH001
+time_data=2020-04-29
+pool=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学生池</t>
+    </r>
+  </si>
+  <si>
+    <t>train_035</t>
+  </si>
+  <si>
+    <t>跟踪客户资源-已报名_应缴学费不选</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>keywards=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>路三</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已报名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+priority=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+next_tracking=2020-04-28
+tracking_content=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已上门洽谈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+cus_class_no=WNSH01
+cus_payable=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+cus_deposit=500
+cus_payment=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支付宝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+cus_account=WNSH001
+time_data=2020-04-29
+pool=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学生池</t>
+    </r>
+  </si>
+  <si>
+    <t>train_036</t>
+  </si>
+  <si>
+    <t>跟踪客户资源-已报名_支付方式不选</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>keywards=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>路三</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已报名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+priority=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+next_tracking=2020-04-28
+tracking_content=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已上门洽谈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+cus_class_no=WNSH01
+cus_payable=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>18800</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+cus_deposit=500
+cus_payment=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+cus_account=WNSH001
+time_data=2020-04-29
+pool=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学生池</t>
+    </r>
+  </si>
+  <si>
+    <t>train_037</t>
+  </si>
+  <si>
+    <t>跟踪客户资源-已报名_收入账户不选</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>keywards=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>路三</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已报名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+priority=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+next_tracking=2020-04-28
+tracking_content=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已上门洽谈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+cus_class_no=WNSH01
+cus_payable=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>18800</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+cus_deposit=500
+cus_payment=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支付宝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+cus_account=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+time_data=2020-04-29
+pool=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学生池</t>
+    </r>
+  </si>
+  <si>
+    <t>train_038</t>
+  </si>
+  <si>
+    <t>废弃客户资源</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.点击培训资源，选择资源库
+2.输入框输入许升
+3.点击跟踪
+4.选择本次状态为可跟进
+5.优先级选择全部
+6.跟踪内容输入：目前考虑换行。
+7.点击保存
+8.勾选个人池
+9.关键字搜索输入陈盼盼并点击搜索并点击搜索
+</t>
+  </si>
+  <si>
+    <r>
+      <t>keywards=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>王秋萍</t>
+    </r>
+  </si>
+  <si>
+    <t>train_039</t>
+  </si>
+  <si>
+    <t>分配客户资源—随机选择一个学员分配到指定的咨询师</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cus_channel=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>360竞价</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+cus_curriculum=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安琪</t>
+    </r>
+  </si>
+  <si>
+    <t>train_040</t>
+  </si>
+  <si>
+    <t>分配废弃客户资源-全部分配到指定的咨询师</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cus_channel=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自然流量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+cus_curriculum=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安琪</t>
+    </r>
+  </si>
+  <si>
+    <t>train_041</t>
+  </si>
+  <si>
+    <t>认领客户资源-单个认领</t>
+  </si>
+  <si>
+    <r>
+      <t>worker=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安琪</t>
+    </r>
+  </si>
+  <si>
+    <t>train_042</t>
+  </si>
+  <si>
+    <t>认领客户资源-多个认领</t>
+  </si>
+  <si>
+    <r>
+      <t>worker=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>斯诺克</t>
+    </r>
+  </si>
+  <si>
+    <t>train_043</t>
+  </si>
+  <si>
+    <t>转交客户资源-查询</t>
+  </si>
+  <si>
+    <r>
+      <t>origin_region=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上海</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+dept=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>咨询部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+worker=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>斯诺克</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新认领</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+source=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全部</t>
+    </r>
+  </si>
+  <si>
+    <t>train_044</t>
+  </si>
+  <si>
+    <t>转交客户资源-转交</t>
+  </si>
+  <si>
+    <r>
+      <t>origin_region=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上海</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+dept=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>咨询部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+worker=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>斯诺克</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+status=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+source=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+region_name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西安</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+dept_name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>咨询部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+worker_name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阿吉</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1202,10 +3382,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -1233,6 +3413,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Tahoma"/>
@@ -1245,14 +3431,8 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -1273,13 +3453,13 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="9"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -1296,7 +3476,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -1328,7 +3508,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1341,8 +3544,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1356,35 +3560,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1394,23 +3569,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1433,10 +3607,32 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1447,15 +3643,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1464,13 +3651,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1505,13 +3685,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1523,43 +3775,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1571,7 +3793,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1589,31 +3811,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1625,67 +3853,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1775,17 +3955,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1801,15 +4005,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1835,31 +4030,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1875,151 +4055,151 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2039,8 +4219,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2055,10 +4236,10 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2073,18 +4254,15 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2094,31 +4272,31 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2506,97 +4684,118 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="13.6" customWidth="1"/>
-    <col min="2" max="2" width="12.8416666666667" customWidth="1"/>
-    <col min="3" max="3" width="11.375" customWidth="1"/>
-    <col min="4" max="4" width="18.875" customWidth="1"/>
-    <col min="5" max="5" width="15.5083333333333" customWidth="1"/>
+    <col min="2" max="3" width="12.8416666666667" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="18.875" customWidth="1"/>
+    <col min="6" max="6" width="15.5083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="38" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" ht="38.25" spans="1:5">
+    <row r="2" ht="48.75" spans="1:6">
       <c r="A2" s="40" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="C2" s="18" t="s">
         <v>8</v>
       </c>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" ht="38.25" spans="1:5">
+    <row r="3" ht="48.75" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="C3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="45"/>
+      <c r="E3" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" ht="38.25" spans="1:5">
+    <row r="4" ht="48.75" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="46"/>
+      <c r="E4" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="5" ht="38.25" spans="1:5">
+    <row r="5" ht="48.75" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>12</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="45"/>
+      <c r="E5" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6" s="18"/>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2608,500 +4807,910 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F32" sqref="A32:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9.125" customWidth="1"/>
-    <col min="2" max="2" width="12.3" style="5" customWidth="1"/>
-    <col min="3" max="3" width="17.7916666666667" style="6" customWidth="1"/>
-    <col min="4" max="4" width="21.3333333333333" style="7" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="9.70833333333333" customWidth="1"/>
+    <col min="1" max="1" width="7.59166666666667" style="5" customWidth="1"/>
+    <col min="2" max="2" width="16.05" style="6" customWidth="1"/>
+    <col min="3" max="3" width="12.4916666666667" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14.9" style="8" customWidth="1"/>
+    <col min="5" max="5" width="21.6333333333333" style="9" customWidth="1"/>
+    <col min="6" max="6" width="8.35833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:6">
-      <c r="A1" s="9" t="s">
+    <row r="1" ht="22" customHeight="1" spans="1:6">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" ht="58" customHeight="1" spans="1:6">
-      <c r="A2" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="C2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="D2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="20" t="s">
-        <v>8</v>
+      <c r="E2" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" ht="34" customHeight="1" spans="1:6">
-      <c r="A3" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="16" t="s">
+      <c r="A3" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="C3" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="20" t="s">
-        <v>8</v>
+      <c r="E3" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" ht="24" customHeight="1" spans="1:6">
-      <c r="A4" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="18" t="s">
+      <c r="B4" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>23</v>
       </c>
+      <c r="D4" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="E4" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>8</v>
+        <v>32</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" ht="24" customHeight="1" spans="1:6">
-      <c r="A5" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="18" t="s">
+      <c r="B5" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>23</v>
       </c>
+      <c r="D5" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="E5" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>8</v>
+        <v>35</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" ht="24" customHeight="1" spans="1:6">
-      <c r="A6" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="16" t="s">
+      <c r="A6" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="18" t="s">
+      <c r="B6" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>8</v>
+      <c r="D6" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" ht="24" customHeight="1" spans="1:6">
-      <c r="A7" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="16" t="s">
+      <c r="A7" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="18" t="s">
+      <c r="B7" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>12</v>
+      <c r="D7" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" ht="36" customHeight="1" spans="1:6">
-      <c r="A8" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="16" t="s">
+      <c r="A8" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="18" t="s">
+      <c r="B8" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>12</v>
+      <c r="D8" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" ht="24" customHeight="1" spans="1:6">
-      <c r="A9" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="16" t="s">
+      <c r="A9" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="18" t="s">
+      <c r="B9" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>23</v>
       </c>
+      <c r="D9" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="E9" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>8</v>
+        <v>47</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" ht="24" customHeight="1" spans="1:6">
-      <c r="A10" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="16" t="s">
+      <c r="A10" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="18" t="s">
+      <c r="B10" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>23</v>
       </c>
+      <c r="D10" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="E10" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>8</v>
+        <v>50</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" ht="24" customHeight="1" spans="1:6">
-      <c r="A11" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="16" t="s">
+      <c r="A11" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="18" t="s">
+      <c r="B11" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>23</v>
       </c>
+      <c r="D11" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="E11" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>8</v>
+        <v>53</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="24" customHeight="1" spans="1:6">
-      <c r="A12" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="16" t="s">
+      <c r="A12" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="18" t="s">
+      <c r="B12" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>23</v>
       </c>
+      <c r="D12" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="E12" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>12</v>
+        <v>56</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="13" customFormat="1" ht="31" customHeight="1" spans="1:6">
-      <c r="A13" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="16" t="s">
+    <row r="13" customFormat="1" ht="58" customHeight="1" spans="1:6">
+      <c r="A13" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="18" t="s">
+      <c r="B13" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>23</v>
       </c>
+      <c r="D13" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="E13" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>8</v>
+        <v>59</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14" ht="44" customHeight="1" spans="1:6">
-      <c r="A14" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="16" t="s">
+      <c r="A14" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="18" t="s">
+      <c r="B14" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>23</v>
       </c>
+      <c r="D14" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="E14" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>8</v>
+        <v>62</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15" ht="47" customHeight="1" spans="1:6">
-      <c r="A15" s="15" t="s">
-        <v>62</v>
+      <c r="A15" s="16" t="s">
+        <v>63</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>23</v>
       </c>
+      <c r="D15" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="E15" s="26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" ht="48.75" spans="1:6">
-      <c r="A16" s="15" t="s">
-        <v>65</v>
+      <c r="A16" s="16" t="s">
+        <v>66</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>23</v>
       </c>
+      <c r="D16" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="E16" s="30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="17" ht="66" customHeight="1" spans="1:6">
-      <c r="A17" s="15" t="s">
-        <v>68</v>
+    <row r="17" ht="39" customHeight="1" spans="1:6">
+      <c r="A17" s="16" t="s">
+        <v>69</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>23</v>
       </c>
+      <c r="D17" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="E17" s="33" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F17" s="34" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="70" customHeight="1" spans="1:6">
-      <c r="A18" s="15" t="s">
-        <v>71</v>
+    <row r="18" customFormat="1" ht="39" customHeight="1" spans="1:6">
+      <c r="A18" s="16" t="s">
+        <v>72</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="18" t="s">
         <v>23</v>
       </c>
+      <c r="D18" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="E18" s="33" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="19" customFormat="1" ht="81" customHeight="1" spans="1:6">
-      <c r="A19" s="15" t="s">
-        <v>74</v>
+    <row r="19" customFormat="1" ht="49" customHeight="1" spans="1:6">
+      <c r="A19" s="16" t="s">
+        <v>75</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="18" t="s">
         <v>23</v>
       </c>
+      <c r="D19" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="E19" s="33" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F19" s="34" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" customFormat="1" ht="46" customHeight="1" spans="1:6">
-      <c r="A20" s="15" t="s">
-        <v>77</v>
+      <c r="A20" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>23</v>
       </c>
+      <c r="D20" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="E20" s="33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" customFormat="1" ht="42" customHeight="1" spans="1:6">
-      <c r="A21" s="15" t="s">
-        <v>80</v>
+      <c r="A21" s="16" t="s">
+        <v>81</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" customFormat="1" ht="42" customHeight="1" spans="1:6">
-      <c r="A22" s="15" t="s">
-        <v>83</v>
+      <c r="A22" s="16" t="s">
+        <v>84</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D22" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" ht="69" customHeight="1" spans="1:6">
+      <c r="A23" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="F22" s="31" t="s">
-        <v>8</v>
+      <c r="D23" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="43" customHeight="1" spans="1:6">
-      <c r="A23" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="36" t="s">
+    <row r="24" customFormat="1" ht="58" customHeight="1" spans="1:6">
+      <c r="A24" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="F23" s="31" t="s">
-        <v>12</v>
+      <c r="D24" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="24" customFormat="1" ht="57" customHeight="1" spans="1:6">
-      <c r="A24" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="36" t="s">
+    <row r="25" customFormat="1" ht="32" customHeight="1" spans="1:6">
+      <c r="A25" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="F24" s="31" t="s">
-        <v>12</v>
+      <c r="D25" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" ht="38" customHeight="1" spans="1:6">
+      <c r="A26" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" ht="25" customHeight="1" spans="1:6">
+      <c r="A27" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="F27" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" ht="28" customHeight="1" spans="1:6">
+      <c r="A28" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="F28" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" ht="58" customHeight="1" spans="1:6">
+      <c r="A29" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" ht="47" customHeight="1" spans="1:6">
+      <c r="A30" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="F30" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" ht="63" customHeight="1" spans="1:6">
+      <c r="A31" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="F31" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" ht="80" customHeight="1" spans="1:6">
+      <c r="A32" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="F32" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" ht="31" customHeight="1" spans="1:6">
+      <c r="A33" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="F33" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" ht="35" customHeight="1" spans="1:6">
+      <c r="A34" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="36"/>
+      <c r="E34" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="F34" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" ht="52" customHeight="1" spans="1:6">
+      <c r="A35" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="36"/>
+      <c r="E35" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="F35" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" ht="59" customHeight="1" spans="1:6">
+      <c r="A36" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="36"/>
+      <c r="E36" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="F36" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" ht="46" customHeight="1" spans="1:6">
+      <c r="A37" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="36"/>
+      <c r="E37" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="F37" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" ht="25" customHeight="1" spans="1:6">
+      <c r="A38" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="36"/>
+      <c r="E38" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="F38" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" ht="35" customHeight="1" spans="1:6">
+      <c r="A39" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="E39" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="F39" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" ht="30" customHeight="1" spans="1:6">
+      <c r="A40" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="F40" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" ht="42" customHeight="1" spans="1:6">
+      <c r="A41" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="E41" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="F41" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" ht="35" customHeight="1" spans="1:6">
+      <c r="A42" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="E42" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="F42" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" ht="36" customHeight="1" spans="1:6">
+      <c r="A43" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="C43" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="E43" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="F43" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" ht="75" customHeight="1" spans="1:6">
+      <c r="A44" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="C44" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="E44" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="F44" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" ht="113" customHeight="1" spans="1:6">
+      <c r="A45" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="C45" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="E45" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="F45" s="31" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3120,7 +5729,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -3131,7 +5740,7 @@
     <row r="1" spans="1:2">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2">
